--- a/SANTO_AUGUSTO.xlsx
+++ b/SANTO_AUGUSTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA590D8-EFFF-4932-9308-EACF43A946B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D75C168-7D1A-4B94-B6CC-AEBE7F429AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{BBEC7189-69EF-41F7-B767-D95EBFD6D62F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FEAC00CC-3DBF-453B-8C04-F2A1865E98ED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1246,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F0486B-3931-44E8-815B-7C9C7C0EF3CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19116163-2A22-435C-8D42-CA7BDCBCA522}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189B1247-1CBB-4E4E-8262-849C6EB939D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193BB0F9-407C-4922-A9BD-B14D757BC3D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D767A65-4EBF-4D14-A6E4-C23FC10A8208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302EA9A9-016D-4E00-8C54-DB60C2257372}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1AAC3C-88AE-1189-0C0F-2FAD5E68E8BD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78657290-A059-FC36-7EDC-848F3AE841B1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16985C94-91E9-3AB8-BB9E-AAEFF2162591}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C40D73-3C44-077F-BAF7-AC597D56BCFE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082B8558-13B3-F251-8574-7A496E1A7351}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCEC111-C0F8-9E74-DAB3-BBF96B6613C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA955A30-FF14-7163-EEF1-00723BDFBB52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B341F9B-CFB2-8B9E-89EA-510DF80706B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A22C3C1-E3E9-3ABF-A61F-964AFDCC1810}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD01F3D9-484B-4E60-1BA4-915ED3EDA721}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA2642B-9A76-4B59-A369-9548DA0BCC09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92E5F4A-736A-41A2-B8C6-8D71EB14225D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0137B555-0691-4D09-A4FE-4D39DE633511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DCB985-32D9-4DE8-B3E8-1405A0A35D73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1623,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C5D837-0CEB-471A-AB6D-286B88C920A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1E4089-A648-4707-B45D-343C7A427915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757EC95C-D1F4-42BC-A95D-E959F75EA1EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBB976-A196-4418-B401-B9E399AAF96E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTO_AUGUSTO.xlsx
+++ b/SANTO_AUGUSTO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D75C168-7D1A-4B94-B6CC-AEBE7F429AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7C6765-3382-4A60-BA8B-56F111FA16D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="303">
   <si>
     <t>COMARCA</t>
   </si>
@@ -935,15 +934,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTO AUGUSTO</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,27 +1186,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FEAC00CC-3DBF-453B-8C04-F2A1865E98ED}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CF3A669A-E694-4982-A450-6979F9C64395}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1221,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19116163-2A22-435C-8D42-CA7BDCBCA522}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEC8DBB-FF7E-4B3C-B919-45BDE5FA3055}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193BB0F9-407C-4922-A9BD-B14D757BC3D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BEF5BB-725F-447E-9C30-9C3DD0648D3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302EA9A9-016D-4E00-8C54-DB60C2257372}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A105EC9-3F48-4324-BC64-B9674A6CE46E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1344,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78657290-A059-FC36-7EDC-848F3AE841B1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FFD4FD-0E8E-D271-5A6F-FC62332345E7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1393,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C40D73-3C44-077F-BAF7-AC597D56BCFE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D929A6F-BFD1-6044-D219-8A0ABDB51F53}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1412,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCEC111-C0F8-9E74-DAB3-BBF96B6613C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4264BBAC-7D92-185C-49BB-AAA7AD3D3393}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1443,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B341F9B-CFB2-8B9E-89EA-510DF80706B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90835FC-EE0A-364B-249F-3377B6E4712B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1474,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD01F3D9-484B-4E60-1BA4-915ED3EDA721}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BABCFD9-CBF3-E7E2-36AC-BE9086B46D7D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1517,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92E5F4A-736A-41A2-B8C6-8D71EB14225D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C361DC-2128-48D0-82FA-558F18B244D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1555,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DCB985-32D9-4DE8-B3E8-1405A0A35D73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36D9187-0FFB-4627-A382-6B08478A111A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1598,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1E4089-A648-4707-B45D-343C7A427915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8C6B69-F693-4DDD-A3DB-628CD57D1D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBB976-A196-4418-B401-B9E399AAF96E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ECB3B6-08DE-4AE0-9884-8B2EF7E28956}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1948,98 +1923,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5536,52 +5511,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="32">
-        <v>26</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.719349292421637E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTO_AUGUSTO.xlsx
+++ b/SANTO_AUGUSTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7C6765-3382-4A60-BA8B-56F111FA16D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7631B9E2-B80E-4D56-AEA9-886667B22C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CF3A669A-E694-4982-A450-6979F9C64395}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8E063CE0-155C-465F-8B2C-D8BBD8E1025F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,10 +1221,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEC8DBB-FF7E-4B3C-B919-45BDE5FA3055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2940FA8-7D49-4345-A8E1-58E2D9AF4FF6}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BEF5BB-725F-447E-9C30-9C3DD0648D3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C2E283-E22F-423D-8F83-E76045A6670B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A105EC9-3F48-4324-BC64-B9674A6CE46E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCCA8D0-CE1F-401C-8034-6F42D95AEDB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FFD4FD-0E8E-D271-5A6F-FC62332345E7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1742922-A7AB-C762-9ABC-276287BBFCD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D929A6F-BFD1-6044-D219-8A0ABDB51F53}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E98B8B2-BA0C-706A-CD39-D6C467017F0C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4264BBAC-7D92-185C-49BB-AAA7AD3D3393}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA4F487-D678-A4F0-9AA2-B9C33F6B3EFE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90835FC-EE0A-364B-249F-3377B6E4712B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B6D4C7-D428-8E9B-709F-71299858FB66}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BABCFD9-CBF3-E7E2-36AC-BE9086B46D7D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99371EF0-EEC3-D83E-C4B6-39A2E7643D2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1517,7 +1517,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C361DC-2128-48D0-82FA-558F18B244D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB37BBE-2BD1-4BBE-8DAD-8D05924A0F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1555,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36D9187-0FFB-4627-A382-6B08478A111A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7F09D3-4A97-4E14-BCCC-FB3320629C83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,50 +1580,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8C6B69-F693-4DDD-A3DB-628CD57D1D79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1911,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ECB3B6-08DE-4AE0-9884-8B2EF7E28956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BE0608-B7E5-4C52-B17B-B9F84A8E91C9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
